--- a/mechwarrior/checklist.xlsx
+++ b/mechwarrior/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/mechwarrior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB0FAEE0-B34F-C243-9AB6-25AE104AAE2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC875B16-A141-FC42-8711-E8483C0C6619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{891EF6FE-F676-7F49-B827-489F36D35572}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Mechwarrior</t>
   </si>
   <si>
-    <t>富士見書房</t>
-  </si>
-  <si>
     <t>magic_bullet_shooter.jpg</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Countdown to the End: Mechwarrior RPG Replay Collection 4</t>
+  </si>
+  <si>
+    <t>Fujimi Shobo</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -518,16 +518,16 @@
         <v>1993</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -535,16 +535,16 @@
         <v>1995</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -552,16 +552,16 @@
         <v>1996</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -569,16 +569,16 @@
         <v>1997</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -586,16 +586,16 @@
         <v>1998</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/mechwarrior/checklist.xlsx
+++ b/mechwarrior/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/mechwarrior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC875B16-A141-FC42-8711-E8483C0C6619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC8310E-C245-6A46-87A3-074579703D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{891EF6FE-F676-7F49-B827-489F36D35572}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{891EF6FE-F676-7F49-B827-489F36D35572}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>year</t>
   </si>
@@ -105,6 +105,57 @@
   </si>
   <si>
     <t>Fujimi Shobo</t>
+  </si>
+  <si>
+    <t>魔女たちの饗宴ーバトルテック・リプレイ集〈1〉</t>
+  </si>
+  <si>
+    <t>女神たちの彷徨ーバトルテック・リプレイ集〈2〉</t>
+  </si>
+  <si>
+    <t>battletech_replay1.jpg</t>
+  </si>
+  <si>
+    <t>battletech_replay2.jpg</t>
+  </si>
+  <si>
+    <t>Witch's Feast: Battletech Replay Collection 1</t>
+  </si>
+  <si>
+    <t>Goddess's Wandering: Battletech Replay Collection 2</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>rulebook</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>10-1</t>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>10-5</t>
+  </si>
+  <si>
+    <t>10-6</t>
   </si>
 </sst>
 </file>
@@ -136,9 +187,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -148,9 +208,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFAFA4F-BC8B-0042-8BD0-18AAB0895527}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,7 +541,7 @@
     <col min="5" max="5" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,8 +557,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1993</v>
       </c>
@@ -512,8 +580,12 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1993</v>
       </c>
@@ -529,8 +601,12 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1995</v>
       </c>
@@ -546,8 +622,14 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1996</v>
       </c>
@@ -563,8 +645,14 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1997</v>
       </c>
@@ -580,8 +668,14 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1998</v>
       </c>
@@ -596,6 +690,58 @@
       </c>
       <c r="E7" t="s">
         <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1992</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1993</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/mechwarrior/checklist.xlsx
+++ b/mechwarrior/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/mechwarrior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC8310E-C245-6A46-87A3-074579703D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D30A59-33C3-224F-8309-A027964551F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{891EF6FE-F676-7F49-B827-489F36D35572}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>Anywhere's Storm: Mechwarrior RPG Replay Collection 2</t>
   </si>
   <si>
-    <t xml:space="preserve">虚像たちのワルツ―メックウォリアーRPGリプレイ集 3 </t>
-  </si>
-  <si>
     <t>waltz_of_virtual_images.jpg</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>10-6</t>
+  </si>
+  <si>
+    <t>虚像たちのワルツ―メックウォリアーRPGリプレイ集 〈3〉</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B4" sqref="A4:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -575,13 +575,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -596,155 +596,158 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G9">
+    <sortCondition ref="G4:G9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>